--- a/GS03FLMA/Omaha_Cal_Info_GS03FLMA_00001.xlsx
+++ b/GS03FLMA/Omaha_Cal_Info_GS03FLMA_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -165,9 +170,6 @@
     <t>CC_depolarization_ratio</t>
   </si>
   <si>
-    <t>GS03FLMA-FM001</t>
-  </si>
-  <si>
     <t>GS03FLMA-00001</t>
   </si>
   <si>
@@ -244,6 +246,9 @@
   </si>
   <si>
     <t>The serial number used here is bogus, pending identification of the real serial number.</t>
+  </si>
+  <si>
+    <t>GS03FLMA</t>
   </si>
 </sst>
 </file>
@@ -420,7 +425,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +453,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
         <bgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -648,7 +659,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -732,6 +743,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,6 +889,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -939,7 +956,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -974,7 +991,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1185,27 +1202,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1240,12 +1259,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1258,16 +1277,16 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="I2" s="3">
         <v>4610</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="18">
@@ -1279,7 +1298,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="25"/>
@@ -1298,19 +1317,19 @@
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="68" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1341,12 +1360,12 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
@@ -1364,12 +1383,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="22">
         <v>1</v>
@@ -1387,12 +1406,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="22">
         <v>1</v>
@@ -1407,12 +1426,12 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="22">
         <v>1</v>
@@ -1427,12 +1446,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
@@ -1447,12 +1466,12 @@
         <v>9.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="22">
         <v>1</v>
@@ -1467,12 +1486,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="22">
         <v>1</v>
@@ -1490,12 +1509,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="22">
         <v>1</v>
@@ -1513,12 +1532,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="22">
         <v>1</v>
@@ -1536,12 +1555,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="22">
         <v>1</v>
@@ -1559,7 +1578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1567,18 +1586,18 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="22">
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>18</v>
@@ -1590,18 +1609,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="22">
         <v>1</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>19</v>
@@ -1610,18 +1629,18 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="22">
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>20</v>
@@ -1630,18 +1649,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="22">
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>21</v>
@@ -1650,18 +1669,18 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="22">
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>22</v>
@@ -1670,18 +1689,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="22">
         <v>1</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>23</v>
@@ -1690,18 +1709,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="22">
         <v>1</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>39</v>
@@ -1713,7 +1732,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -1721,12 +1740,12 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="22">
         <v>1</v>
@@ -1744,12 +1763,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="22">
         <v>1</v>
@@ -1764,15 +1783,15 @@
         <v>-89.65361</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="22">
         <v>1</v>
@@ -1784,10 +1803,10 @@
         <v>15</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -1795,12 +1814,12 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="22">
         <v>1</v>
@@ -1818,12 +1837,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="22">
         <v>1</v>
@@ -1838,12 +1857,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="22">
         <v>1</v>
@@ -1858,12 +1877,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="22">
         <v>1</v>
@@ -1878,12 +1897,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="22">
         <v>1</v>
@@ -1898,12 +1917,12 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="22">
         <v>1</v>
@@ -1918,12 +1937,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="22">
         <v>1</v>
@@ -1938,12 +1957,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="22">
         <v>1</v>
@@ -1958,12 +1977,12 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="22">
         <v>1</v>
@@ -1978,7 +1997,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -1986,12 +2005,12 @@
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="22">
         <v>1</v>
@@ -2009,12 +2028,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="22">
         <v>1</v>
@@ -2029,12 +2048,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="22">
         <v>1</v>
@@ -2049,12 +2068,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="22">
         <v>1</v>
@@ -2069,7 +2088,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -2077,12 +2096,12 @@
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="22">
         <v>1</v>
@@ -2100,12 +2119,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="22">
         <v>1</v>
@@ -2120,12 +2139,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="22">
         <v>1</v>
@@ -2140,12 +2159,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="22">
         <v>1</v>
@@ -2160,7 +2179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2168,12 +2187,12 @@
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="22">
         <v>1</v>
@@ -2191,12 +2210,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="22">
         <v>1</v>
@@ -2211,12 +2230,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="22">
         <v>1</v>
@@ -2231,12 +2250,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="22">
         <v>1</v>
@@ -2251,7 +2270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -2259,12 +2278,12 @@
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="22">
         <v>1</v>
@@ -2282,12 +2301,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="22">
         <v>1</v>
@@ -2302,12 +2321,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="22">
         <v>1</v>
@@ -2322,12 +2341,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="22">
         <v>1</v>
@@ -2342,7 +2361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -2350,12 +2369,12 @@
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="22">
         <v>1</v>
@@ -2373,12 +2392,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="22">
         <v>1</v>
@@ -2393,12 +2412,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="22">
         <v>1</v>
@@ -2413,12 +2432,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="22">
         <v>1</v>
@@ -2433,7 +2452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -2441,12 +2460,12 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="22">
         <v>1</v>
@@ -2464,12 +2483,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="22">
         <v>1</v>
@@ -2484,12 +2503,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C63" s="22">
         <v>1</v>
@@ -2504,12 +2523,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C64" s="22">
         <v>1</v>
@@ -2524,7 +2543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -2532,12 +2551,12 @@
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="22">
         <v>1</v>
@@ -2555,12 +2574,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="22">
         <v>1</v>
@@ -2575,12 +2594,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" s="22">
         <v>1</v>
@@ -2595,12 +2614,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C69" s="22">
         <v>1</v>
@@ -2615,7 +2634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -2623,12 +2642,12 @@
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="22">
         <v>1</v>
@@ -2646,12 +2665,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" s="22">
         <v>1</v>
@@ -2666,12 +2685,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" s="22">
         <v>1</v>
@@ -2686,12 +2705,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" s="22">
         <v>1</v>
@@ -2706,7 +2725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -2714,12 +2733,12 @@
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C76" s="22">
         <v>1</v>
@@ -2737,12 +2756,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="22">
         <v>1</v>
@@ -2757,12 +2776,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="22">
         <v>1</v>
@@ -2777,12 +2796,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="22">
         <v>1</v>
@@ -2797,7 +2816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -2805,12 +2824,12 @@
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" s="23">
         <v>1</v>
@@ -2828,12 +2847,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="22">
         <v>1</v>
@@ -2848,12 +2867,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="22">
         <v>1</v>
@@ -2868,12 +2887,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C84" s="22">
         <v>1</v>
@@ -2888,7 +2907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -2896,12 +2915,12 @@
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" s="22">
         <v>1</v>
@@ -2919,12 +2938,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" s="22">
         <v>1</v>
@@ -2939,12 +2958,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C88" s="22">
         <v>1</v>
@@ -2959,12 +2978,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C89" s="22">
         <v>1</v>
@@ -2979,7 +2998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -2987,12 +3006,12 @@
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C91" s="22">
         <v>1</v>
@@ -3010,12 +3029,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C92" s="22">
         <v>1</v>
@@ -3030,12 +3049,12 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93" s="22">
         <v>1</v>
@@ -3050,12 +3069,12 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94" s="22">
         <v>1</v>
@@ -3070,7 +3089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -3078,26 +3097,26 @@
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" s="22">
         <v>1</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E96" s="21"/>
       <c r="F96" s="21"/>
       <c r="G96" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -3105,7 +3124,7 @@
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -3113,7 +3132,7 @@
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -3121,7 +3140,7 @@
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -3129,7 +3148,7 @@
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -3137,7 +3156,7 @@
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>

--- a/GS03FLMA/Omaha_Cal_Info_GS03FLMA_00001.xlsx
+++ b/GS03FLMA/Omaha_Cal_Info_GS03FLMA_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -956,7 +951,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -991,7 +986,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1202,26 +1197,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="4"/>
+    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1259,7 +1254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>73</v>
       </c>
@@ -1298,7 +1293,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
       <c r="F3" s="25"/>
@@ -1313,23 +1308,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="68" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1360,7 +1355,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
@@ -1383,7 +1378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>48</v>
       </c>
@@ -1406,7 +1401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>48</v>
       </c>
@@ -1426,7 +1421,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>48</v>
       </c>
@@ -1446,7 +1441,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -1466,7 +1461,7 @@
         <v>9.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>48</v>
       </c>
@@ -1486,7 +1481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>48</v>
       </c>
@@ -1503,13 +1498,13 @@
         <v>43</v>
       </c>
       <c r="F9" s="21">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>48</v>
       </c>
@@ -1532,7 +1527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>48</v>
       </c>
@@ -1549,13 +1544,13 @@
         <v>45</v>
       </c>
       <c r="F11" s="21">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>48</v>
       </c>
@@ -1578,7 +1573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1586,7 +1581,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>49</v>
       </c>
@@ -1609,7 +1604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>49</v>
       </c>
@@ -1629,7 +1624,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>49</v>
       </c>
@@ -1649,7 +1644,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>49</v>
       </c>
@@ -1669,7 +1664,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>49</v>
       </c>
@@ -1689,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>49</v>
       </c>
@@ -1709,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>49</v>
       </c>
@@ -1732,7 +1727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
@@ -1740,7 +1735,7 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>50</v>
       </c>
@@ -1763,7 +1758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>50</v>
       </c>
@@ -1786,7 +1781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>50</v>
       </c>
@@ -1806,7 +1801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
@@ -1814,7 +1809,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>52</v>
       </c>
@@ -1837,7 +1832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>52</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>52</v>
       </c>
@@ -1877,7 +1872,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>52</v>
       </c>
@@ -1897,7 +1892,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>52</v>
       </c>
@@ -1917,7 +1912,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>52</v>
       </c>
@@ -1937,7 +1932,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>52</v>
       </c>
@@ -1957,7 +1952,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>52</v>
       </c>
@@ -1977,7 +1972,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>52</v>
       </c>
@@ -1997,7 +1992,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
@@ -2005,7 +2000,7 @@
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
         <v>53</v>
       </c>
@@ -2022,13 +2017,13 @@
         <v>5</v>
       </c>
       <c r="F36" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
         <v>53</v>
       </c>
@@ -2048,7 +2043,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
         <v>53</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>53</v>
       </c>
@@ -2088,7 +2083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="22"/>
@@ -2096,7 +2091,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>54</v>
       </c>
@@ -2113,13 +2108,13 @@
         <v>5</v>
       </c>
       <c r="F41" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>54</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>54</v>
       </c>
@@ -2159,7 +2154,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>54</v>
       </c>
@@ -2179,7 +2174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="22"/>
@@ -2187,7 +2182,7 @@
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>55</v>
       </c>
@@ -2204,13 +2199,13 @@
         <v>5</v>
       </c>
       <c r="F46" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>55</v>
       </c>
@@ -2230,7 +2225,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>55</v>
       </c>
@@ -2250,7 +2245,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>55</v>
       </c>
@@ -2270,7 +2265,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22"/>
@@ -2278,7 +2273,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>56</v>
       </c>
@@ -2295,13 +2290,13 @@
         <v>5</v>
       </c>
       <c r="F51" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>56</v>
       </c>
@@ -2321,7 +2316,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>56</v>
       </c>
@@ -2341,7 +2336,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>56</v>
       </c>
@@ -2361,7 +2356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
@@ -2369,7 +2364,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>57</v>
       </c>
@@ -2386,13 +2381,13 @@
         <v>5</v>
       </c>
       <c r="F56" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>57</v>
       </c>
@@ -2412,7 +2407,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>57</v>
       </c>
@@ -2432,7 +2427,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>57</v>
       </c>
@@ -2452,7 +2447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="22"/>
@@ -2460,7 +2455,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>58</v>
       </c>
@@ -2477,13 +2472,13 @@
         <v>5</v>
       </c>
       <c r="F61" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>58</v>
       </c>
@@ -2503,7 +2498,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>58</v>
       </c>
@@ -2523,7 +2518,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>58</v>
       </c>
@@ -2543,7 +2538,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="22"/>
@@ -2551,7 +2546,7 @@
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>59</v>
       </c>
@@ -2568,13 +2563,13 @@
         <v>5</v>
       </c>
       <c r="F66" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>59</v>
       </c>
@@ -2594,7 +2589,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>59</v>
       </c>
@@ -2614,7 +2609,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>59</v>
       </c>
@@ -2634,7 +2629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="22"/>
@@ -2642,7 +2637,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>60</v>
       </c>
@@ -2659,13 +2654,13 @@
         <v>5</v>
       </c>
       <c r="F71" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>60</v>
       </c>
@@ -2685,7 +2680,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>60</v>
       </c>
@@ -2705,7 +2700,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>60</v>
       </c>
@@ -2725,7 +2720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="22"/>
@@ -2733,7 +2728,7 @@
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>61</v>
       </c>
@@ -2750,13 +2745,13 @@
         <v>5</v>
       </c>
       <c r="F76" s="21">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>61</v>
       </c>
@@ -2776,7 +2771,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>61</v>
       </c>
@@ -2796,7 +2791,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>61</v>
       </c>
@@ -2816,7 +2811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="22"/>
@@ -2824,7 +2819,7 @@
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>62</v>
       </c>
@@ -2841,13 +2836,13 @@
         <v>5</v>
       </c>
       <c r="F81" s="24">
-        <v>3500</v>
+        <v>5700</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>62</v>
       </c>
@@ -2867,7 +2862,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>62</v>
       </c>
@@ -2887,7 +2882,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>62</v>
       </c>
@@ -2907,7 +2902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
@@ -2915,7 +2910,7 @@
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>63</v>
       </c>
@@ -2931,14 +2926,14 @@
       <c r="E86" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="21">
-        <v>3500</v>
+      <c r="F86" s="24">
+        <v>5700</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>63</v>
       </c>
@@ -2958,7 +2953,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>63</v>
       </c>
@@ -2978,7 +2973,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>63</v>
       </c>
@@ -2998,7 +2993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="22"/>
@@ -3006,7 +3001,7 @@
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>64</v>
       </c>
@@ -3022,14 +3017,14 @@
       <c r="E91" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="21">
-        <v>3500</v>
+      <c r="F91" s="24">
+        <v>5700</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>64</v>
       </c>
@@ -3049,7 +3044,7 @@
         <v>-54.105166666666669</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>64</v>
       </c>
@@ -3069,7 +3064,7 @@
         <v>-89.65361</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>64</v>
       </c>
@@ -3089,7 +3084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="22"/>
@@ -3097,7 +3092,7 @@
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>65</v>
       </c>
@@ -3116,7 +3111,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22"/>
@@ -3124,7 +3119,7 @@
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -3132,7 +3127,7 @@
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -3140,7 +3135,7 @@
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -3148,7 +3143,7 @@
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -3156,7 +3151,7 @@
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>

--- a/GS03FLMA/Omaha_Cal_Info_GS03FLMA_00001.xlsx
+++ b/GS03FLMA/Omaha_Cal_Info_GS03FLMA_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -168,57 +168,12 @@
     <t>GS03FLMA-00001</t>
   </si>
   <si>
-    <t>GS03FLMA-RIS01-01-FLORTD000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS01-02-PHSENE000</t>
-  </si>
-  <si>
     <t>GS03FLMA-RIS01-03-DOSTAD000</t>
   </si>
   <si>
     <t>Requires TEMPWAT, PRESWAT, and PRACSAL from GS03FLMA-RIS02-03-CTDMOG000</t>
   </si>
   <si>
-    <t>GS03FLMA-RIS02-01-ADCPSL000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-03-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-04-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-05-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-06-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-07-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-08-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-09-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-10-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-11-CTDMOG000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-12-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-13-CTDMOH000</t>
-  </si>
-  <si>
-    <t>GS03FLMA-RIS02-14-CTDMOH000</t>
-  </si>
-  <si>
     <t>GS03FLMA-FM001-00-ENG000000</t>
   </si>
   <si>
@@ -244,6 +199,51 @@
   </si>
   <si>
     <t>GS03FLMA</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIS01-05-FLORTD000</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-ADCPSL003</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG088</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG030</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG076</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG071</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG074</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG036</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG072</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG033</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOG070</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOH085</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOH091</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIM01-02-CTDMOH090</t>
+  </si>
+  <si>
+    <t>GS03FLMA-RIS01-04-PHSENF000</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1198,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>47</v>
@@ -1272,16 +1272,16 @@
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3">
         <v>4610</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="18">
@@ -1306,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1348,16 +1348,31 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1216</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1.9290000000000001E-6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>47</v>
@@ -1369,18 +1384,18 @@
         <v>1216</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="21">
-        <v>1.9290000000000001E-6</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>47</v>
@@ -1392,18 +1407,15 @@
         <v>1216</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="21">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>1.21E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>47</v>
@@ -1415,15 +1427,15 @@
         <v>1216</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="21">
-        <v>1.21E-2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>47</v>
@@ -1435,15 +1447,15 @@
         <v>1216</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="21">
-        <v>48</v>
+        <v>9.0499999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>47</v>
@@ -1455,15 +1467,15 @@
         <v>1216</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="21">
-        <v>9.0499999999999997E-2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>47</v>
@@ -1475,15 +1487,18 @@
         <v>1216</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F8" s="21">
+        <v>124</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>47</v>
@@ -1495,10 +1510,10 @@
         <v>1216</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="21">
-        <v>124</v>
+        <v>700</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>42</v>
@@ -1506,7 +1521,7 @@
     </row>
     <row r="10" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>47</v>
@@ -1518,10 +1533,10 @@
         <v>1216</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="21">
-        <v>700</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>42</v>
@@ -1529,7 +1544,7 @@
     </row>
     <row r="11" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>47</v>
@@ -1541,10 +1556,10 @@
         <v>1216</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="21">
-        <v>1.0760000000000001</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
@@ -1552,7 +1567,7 @@
     </row>
     <row r="12" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>47</v>
@@ -1560,30 +1575,42 @@
       <c r="C12" s="22">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
-        <v>1216</v>
+      <c r="D12" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F12" s="21">
-        <v>3.9E-2</v>
+        <v>17533</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="A13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="21">
+        <v>2229</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>47</v>
@@ -1592,21 +1619,18 @@
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" s="21">
-        <v>17533</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>47</v>
@@ -1615,18 +1639,18 @@
         <v>1</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="21">
-        <v>2229</v>
+        <v>38502</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>47</v>
@@ -1635,18 +1659,18 @@
         <v>1</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" s="21">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>47</v>
@@ -1655,18 +1679,18 @@
         <v>1</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="21">
-        <v>38502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>47</v>
@@ -1675,18 +1699,21 @@
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F18" s="21">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>47</v>
@@ -1694,50 +1721,65 @@
       <c r="C19" s="22">
         <v>1</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>69</v>
+      <c r="D19" s="21">
+        <v>393</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F19" s="21">
-        <v>0</v>
+        <v>-54.105166666666669</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="22">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
+        <v>393</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="21">
+        <v>-89.65361</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="22">
-        <v>1</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="21">
-        <v>35</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="21" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="A21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <v>393</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>47</v>
@@ -1746,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="21">
-        <v>393</v>
+        <v>18352</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>6</v>
@@ -1760,7 +1802,7 @@
     </row>
     <row r="23" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>47</v>
@@ -1769,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="21">
-        <v>393</v>
+        <v>18352</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>7</v>
@@ -1777,13 +1819,10 @@
       <c r="F23" s="21">
         <v>-89.65361</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="24" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>47</v>
@@ -1792,26 +1831,38 @@
         <v>1</v>
       </c>
       <c r="D24" s="21">
-        <v>393</v>
+        <v>18352</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="21">
+        <v>-54.105166666666669</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="A25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="22">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21">
+        <v>18352</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="21">
+        <v>-89.65361</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>47</v>
@@ -1823,18 +1874,15 @@
         <v>18352</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F26" s="21">
-        <v>-54.105166666666669</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>14</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>47</v>
@@ -1846,15 +1894,15 @@
         <v>18352</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F27" s="21">
-        <v>-89.65361</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>47</v>
@@ -1866,15 +1914,15 @@
         <v>18352</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F28" s="21">
-        <v>-54.105166666666669</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>47</v>
@@ -1886,15 +1934,15 @@
         <v>18352</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F29" s="21">
-        <v>-89.65361</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>47</v>
@@ -1906,15 +1954,15 @@
         <v>18352</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F30" s="21">
-        <v>500000</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>47</v>
@@ -1923,18 +1971,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="21">
-        <v>18352</v>
+        <v>12588</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F31" s="21">
-        <v>0.45</v>
+        <v>1450</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>47</v>
@@ -1943,18 +1994,18 @@
         <v>1</v>
       </c>
       <c r="D32" s="21">
-        <v>18352</v>
+        <v>12588</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F32" s="21">
-        <v>0.45</v>
+        <v>-54.105166666666669</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>47</v>
@@ -1963,18 +2014,18 @@
         <v>1</v>
       </c>
       <c r="D33" s="21">
-        <v>18352</v>
+        <v>12588</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F33" s="21">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>-89.65361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>47</v>
@@ -1983,26 +2034,41 @@
         <v>1</v>
       </c>
       <c r="D34" s="21">
-        <v>18352</v>
+        <v>12588</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F34" s="21">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="22">
+        <v>1</v>
+      </c>
+      <c r="D35" s="21">
+        <v>12330</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="21">
+        <v>1450</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>47</v>
@@ -2011,21 +2077,18 @@
         <v>1</v>
       </c>
       <c r="D36" s="21">
-        <v>12588</v>
+        <v>12330</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>-54.105166666666669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>47</v>
@@ -2034,18 +2097,18 @@
         <v>1</v>
       </c>
       <c r="D37" s="21">
-        <v>12588</v>
+        <v>12330</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F37" s="21">
-        <v>-54.105166666666669</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="13.9" x14ac:dyDescent="0.3">
+        <v>-89.65361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>47</v>
@@ -2054,18 +2117,18 @@
         <v>1</v>
       </c>
       <c r="D38" s="21">
-        <v>12588</v>
+        <v>12330</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F38" s="21">
-        <v>-89.65361</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>47</v>
@@ -2074,26 +2137,41 @@
         <v>1</v>
       </c>
       <c r="D39" s="21">
-        <v>12588</v>
+        <v>12376</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F39" s="21">
-        <v>57</v>
+        <v>1450</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="A40" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="22">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21">
+        <v>12376</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="21">
+        <v>-54.105166666666669</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>54</v>
+      <c r="A41" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>47</v>
@@ -2102,21 +2180,18 @@
         <v>1</v>
       </c>
       <c r="D41" s="21">
-        <v>12330</v>
+        <v>12376</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>14</v>
+        <v>-89.65361</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>47</v>
@@ -2125,18 +2200,18 @@
         <v>1</v>
       </c>
       <c r="D42" s="21">
-        <v>12330</v>
+        <v>12376</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F42" s="21">
-        <v>-54.105166666666669</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>47</v>
@@ -2145,18 +2220,21 @@
         <v>1</v>
       </c>
       <c r="D43" s="21">
-        <v>12330</v>
+        <v>12371</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F43" s="21">
-        <v>-89.65361</v>
+        <v>1450</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>47</v>
@@ -2165,49 +2243,58 @@
         <v>1</v>
       </c>
       <c r="D44" s="21">
-        <v>12330</v>
+        <v>12371</v>
       </c>
       <c r="E44" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="21">
+        <v>-54.105166666666669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="22">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21">
+        <v>12371</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="21">
+        <v>-89.65361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="22">
+        <v>1</v>
+      </c>
+      <c r="D46" s="21">
+        <v>12371</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="22">
-        <v>1</v>
-      </c>
-      <c r="D46" s="21">
-        <v>12376</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="F46" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>47</v>
@@ -2216,18 +2303,21 @@
         <v>1</v>
       </c>
       <c r="D47" s="21">
-        <v>12376</v>
+        <v>12374</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" s="21">
-        <v>-54.105166666666669</v>
+        <v>1450</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>47</v>
@@ -2236,18 +2326,18 @@
         <v>1</v>
       </c>
       <c r="D48" s="21">
-        <v>12376</v>
+        <v>12374</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" s="21">
-        <v>-89.65361</v>
+        <v>-54.105166666666669</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>47</v>
@@ -2256,26 +2346,38 @@
         <v>1</v>
       </c>
       <c r="D49" s="21">
-        <v>12376</v>
+        <v>12374</v>
       </c>
       <c r="E49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="21">
+        <v>-89.65361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="22">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21">
+        <v>12374</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="F50" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>56</v>
+      <c r="A51" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>47</v>
@@ -2284,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="21">
-        <v>12371</v>
+        <v>12336</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>5</v>
@@ -2298,7 +2400,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>47</v>
@@ -2307,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="21">
-        <v>12371</v>
+        <v>12336</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>6</v>
@@ -2318,7 +2420,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>47</v>
@@ -2327,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="21">
-        <v>12371</v>
+        <v>12336</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>7</v>
@@ -2338,7 +2440,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>47</v>
@@ -2347,26 +2449,41 @@
         <v>1</v>
       </c>
       <c r="D54" s="21">
-        <v>12371</v>
+        <v>12336</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="21">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="A55" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="22">
+        <v>1</v>
+      </c>
+      <c r="D55" s="21">
+        <v>12372</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="21">
+        <v>1450</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>57</v>
+      <c r="A56" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>47</v>
@@ -2375,21 +2492,18 @@
         <v>1</v>
       </c>
       <c r="D56" s="21">
-        <v>12374</v>
+        <v>12372</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F56" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>14</v>
+        <v>-54.105166666666669</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>47</v>
@@ -2398,18 +2512,18 @@
         <v>1</v>
       </c>
       <c r="D57" s="21">
-        <v>12374</v>
+        <v>12372</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" s="21">
-        <v>-54.105166666666669</v>
+        <v>-89.65361</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>47</v>
@@ -2418,18 +2532,18 @@
         <v>1</v>
       </c>
       <c r="D58" s="21">
-        <v>12374</v>
+        <v>12372</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F58" s="21">
-        <v>-89.65361</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>47</v>
@@ -2438,26 +2552,41 @@
         <v>1</v>
       </c>
       <c r="D59" s="21">
-        <v>12374</v>
+        <v>12333</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F59" s="21">
-        <v>54</v>
+        <v>1450</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
+      <c r="A60" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="22">
+        <v>1</v>
+      </c>
+      <c r="D60" s="21">
+        <v>12333</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="21">
+        <v>-54.105166666666669</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>58</v>
+      <c r="A61" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>47</v>
@@ -2466,21 +2595,18 @@
         <v>1</v>
       </c>
       <c r="D61" s="21">
-        <v>12336</v>
+        <v>12333</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F61" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>14</v>
+        <v>-89.65361</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>47</v>
@@ -2489,18 +2615,18 @@
         <v>1</v>
       </c>
       <c r="D62" s="21">
-        <v>12336</v>
+        <v>12333</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F62" s="21">
-        <v>-54.105166666666669</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>47</v>
@@ -2509,18 +2635,21 @@
         <v>1</v>
       </c>
       <c r="D63" s="21">
-        <v>12336</v>
+        <v>12370</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F63" s="21">
-        <v>-89.65361</v>
+        <v>1450</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>47</v>
@@ -2529,69 +2658,81 @@
         <v>1</v>
       </c>
       <c r="D64" s="21">
-        <v>12336</v>
+        <v>12370</v>
       </c>
       <c r="E64" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="21">
+        <v>-54.105166666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="22">
+        <v>1</v>
+      </c>
+      <c r="D65" s="21">
+        <v>12370</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="21">
+        <v>-89.65361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="22">
+        <v>1</v>
+      </c>
+      <c r="D66" s="21">
+        <v>12370</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="21">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="22">
-        <v>1</v>
-      </c>
-      <c r="D66" s="21">
-        <v>12372</v>
-      </c>
-      <c r="E66" s="21" t="s">
+      <c r="F66" s="21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="23">
+        <v>1</v>
+      </c>
+      <c r="D67" s="24">
+        <v>12385</v>
+      </c>
+      <c r="E67" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G66" s="2" t="s">
+      <c r="F67" s="24">
+        <v>5700</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="22">
-        <v>1</v>
-      </c>
-      <c r="D67" s="21">
-        <v>12372</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="21">
-        <v>-54.105166666666669</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>47</v>
@@ -2600,18 +2741,18 @@
         <v>1</v>
       </c>
       <c r="D68" s="21">
-        <v>12372</v>
+        <v>12385</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" s="21">
-        <v>-89.65361</v>
+        <v>-54.105166666666669</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>47</v>
@@ -2620,49 +2761,61 @@
         <v>1</v>
       </c>
       <c r="D69" s="21">
-        <v>12372</v>
+        <v>12385</v>
       </c>
       <c r="E69" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="21">
+        <v>-89.65361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="22">
+        <v>1</v>
+      </c>
+      <c r="D70" s="21">
+        <v>12385</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="21">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="22">
-        <v>1</v>
-      </c>
-      <c r="D71" s="21">
-        <v>12333</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="F70" s="21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="23">
+        <v>1</v>
+      </c>
+      <c r="D71" s="24">
+        <v>12385</v>
+      </c>
+      <c r="E71" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G71" s="2" t="s">
+      <c r="F71" s="24">
+        <v>5700</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>47</v>
@@ -2671,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="21">
-        <v>12333</v>
+        <v>12385</v>
       </c>
       <c r="E72" s="21" t="s">
         <v>6</v>
@@ -2682,7 +2835,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>47</v>
@@ -2691,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="21">
-        <v>12333</v>
+        <v>12385</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>7</v>
@@ -2702,7 +2855,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>47</v>
@@ -2711,26 +2864,41 @@
         <v>1</v>
       </c>
       <c r="D74" s="21">
-        <v>12333</v>
+        <v>12385</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="23">
+        <v>1</v>
+      </c>
+      <c r="D75" s="24">
+        <v>12385</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="24">
+        <v>5700</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>61</v>
+      <c r="A76" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>47</v>
@@ -2739,21 +2907,18 @@
         <v>1</v>
       </c>
       <c r="D76" s="21">
-        <v>12370</v>
+        <v>12385</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F76" s="21">
-        <v>1450</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>14</v>
+        <v>-54.105166666666669</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>47</v>
@@ -2762,18 +2927,18 @@
         <v>1</v>
       </c>
       <c r="D77" s="21">
-        <v>12370</v>
+        <v>12385</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F77" s="21">
-        <v>-54.105166666666669</v>
+        <v>-89.65361</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>47</v>
@@ -2782,18 +2947,18 @@
         <v>1</v>
       </c>
       <c r="D78" s="21">
-        <v>12370</v>
+        <v>12385</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F78" s="21">
-        <v>-89.65361</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>47</v>
@@ -2801,14 +2966,13 @@
       <c r="C79" s="22">
         <v>1</v>
       </c>
-      <c r="D79" s="21">
-        <v>12370</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" s="21">
+      <c r="D79" s="28" t="s">
         <v>56</v>
+      </c>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,345 +2983,45 @@
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" s="23">
-        <v>1</v>
-      </c>
-      <c r="D81" s="24">
-        <v>12385</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="24">
-        <v>5700</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="22">
-        <v>1</v>
-      </c>
-      <c r="D82" s="21">
-        <v>12385</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="21">
-        <v>-54.105166666666669</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="22">
-        <v>1</v>
-      </c>
-      <c r="D83" s="21">
-        <v>12385</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" s="21">
-        <v>-89.65361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="22">
-        <v>1</v>
-      </c>
-      <c r="D84" s="21">
-        <v>12385</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F84" s="21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
-      <c r="C85" s="22"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="22">
-        <v>1</v>
-      </c>
-      <c r="D86" s="21">
-        <v>12391</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="24">
-        <v>5700</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="22">
-        <v>1</v>
-      </c>
-      <c r="D87" s="21">
-        <v>12391</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="21">
-        <v>-54.105166666666669</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" s="22">
-        <v>1</v>
-      </c>
-      <c r="D88" s="21">
-        <v>12391</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="21">
-        <v>-89.65361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" s="22">
-        <v>1</v>
-      </c>
-      <c r="D89" s="21">
-        <v>12391</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="22">
-        <v>1</v>
-      </c>
-      <c r="D91" s="21">
-        <v>12390</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="24">
-        <v>5700</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="22">
-        <v>1</v>
-      </c>
-      <c r="D92" s="21">
-        <v>12390</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="21">
-        <v>-54.105166666666669</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="22">
-        <v>1</v>
-      </c>
-      <c r="D93" s="21">
-        <v>12390</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" s="21">
-        <v>-89.65361</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="22">
-        <v>1</v>
-      </c>
-      <c r="D94" s="21">
-        <v>12390</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F94" s="21">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="22">
-        <v>1</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="21"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="21"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="21"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
